--- a/financial statements/q3 2018 (2017).xlsx
+++ b/financial statements/q3 2018 (2017).xlsx
@@ -1,65 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsusser/Desktop/Financial-Statements/financial statements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F910F16-3506-B446-8ACA-D5A1A014D21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-920" yWindow="500" windowWidth="23500" windowHeight="14600" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Document and Entity Information" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED BALANCE " sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED BALANCE3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED STATEMEN" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED STATEME5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED STATEME6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CONDENSED CONSOLIDATED STATEME7" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Basis of Presentation" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recent Accounting Pronouncement" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Debt and Credit Facilities" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fair Value Measurements" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrument" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share Repurchases" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accumulated Other Comprehensive" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share-Based Compensation" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Taxes" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Earnings Per Share" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commitments and Contingencies" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Segment Information" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Debt and Credit Facilities Long" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fair Value Measurements (Tables" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrume22" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share Repurchases (Tables)" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accumulated Other Comprehensi24" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share-Based Compensation (Table" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Earnings Per Share (Tables)" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Segment Information (Tables)" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Recent Accounting Pronounceme28" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Debt and Credit Facilities Lo29" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Debt and Credit Facilities - Ad" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fair Value Measurements - Finan" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Fair Value Measurements - Addit" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrume33" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrume34" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrume35" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Derivative Financial Instrume36" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share Repurchase Activity (Deta" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share Repurchases - Additional " sheetId="38" state="visible" r:id="rId38"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Accumulated Other Comprehensi39" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Share-Based Compensation Expens" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Income Taxes - Additional Infor" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Earnings Per Share - Weighted A" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Earnings Per Share - Additional" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Commitments and Contingencies -" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Segment Information - Net Sales" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Segment Information - Additiona" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="Document and Entity Information" sheetId="1" r:id="rId1"/>
+    <sheet name="CONDENSED CONSOLIDATED BALANCE " sheetId="2" r:id="rId2"/>
+    <sheet name="CONDENSED CONSOLIDATED BALANCE3" sheetId="3" r:id="rId3"/>
+    <sheet name="CONDENSED CONSOLIDATED STATEMEN" sheetId="4" r:id="rId4"/>
+    <sheet name="CONDENSED CONSOLIDATED STATEME5" sheetId="5" r:id="rId5"/>
+    <sheet name="CONDENSED CONSOLIDATED STATEME6" sheetId="6" r:id="rId6"/>
+    <sheet name="CONDENSED CONSOLIDATED STATEME7" sheetId="7" r:id="rId7"/>
+    <sheet name="Basis of Presentation" sheetId="8" r:id="rId8"/>
+    <sheet name="Recent Accounting Pronouncement" sheetId="9" r:id="rId9"/>
+    <sheet name="Debt and Credit Facilities" sheetId="10" r:id="rId10"/>
+    <sheet name="Fair Value Measurements" sheetId="11" r:id="rId11"/>
+    <sheet name="Derivative Financial Instrument" sheetId="12" r:id="rId12"/>
+    <sheet name="Share Repurchases" sheetId="13" r:id="rId13"/>
+    <sheet name="Accumulated Other Comprehensive" sheetId="14" r:id="rId14"/>
+    <sheet name="Share-Based Compensation" sheetId="15" r:id="rId15"/>
+    <sheet name="Income Taxes" sheetId="16" r:id="rId16"/>
+    <sheet name="Earnings Per Share" sheetId="17" r:id="rId17"/>
+    <sheet name="Commitments and Contingencies" sheetId="18" r:id="rId18"/>
+    <sheet name="Segment Information" sheetId="19" r:id="rId19"/>
+    <sheet name="Debt and Credit Facilities Long" sheetId="20" r:id="rId20"/>
+    <sheet name="Fair Value Measurements (Tables" sheetId="21" r:id="rId21"/>
+    <sheet name="Derivative Financial Instrume22" sheetId="22" r:id="rId22"/>
+    <sheet name="Share Repurchases (Tables)" sheetId="23" r:id="rId23"/>
+    <sheet name="Accumulated Other Comprehensi24" sheetId="24" r:id="rId24"/>
+    <sheet name="Share-Based Compensation (Table" sheetId="25" r:id="rId25"/>
+    <sheet name="Earnings Per Share (Tables)" sheetId="26" r:id="rId26"/>
+    <sheet name="Segment Information (Tables)" sheetId="27" r:id="rId27"/>
+    <sheet name="Recent Accounting Pronounceme28" sheetId="28" r:id="rId28"/>
+    <sheet name="Debt and Credit Facilities Lo29" sheetId="29" r:id="rId29"/>
+    <sheet name="Debt and Credit Facilities - Ad" sheetId="30" r:id="rId30"/>
+    <sheet name="Fair Value Measurements - Finan" sheetId="31" r:id="rId31"/>
+    <sheet name="Fair Value Measurements - Addit" sheetId="32" r:id="rId32"/>
+    <sheet name="Derivative Financial Instrume33" sheetId="33" r:id="rId33"/>
+    <sheet name="Derivative Financial Instrume34" sheetId="34" r:id="rId34"/>
+    <sheet name="Derivative Financial Instrume35" sheetId="35" r:id="rId35"/>
+    <sheet name="Derivative Financial Instrume36" sheetId="36" r:id="rId36"/>
+    <sheet name="Share Repurchase Activity (Deta" sheetId="37" r:id="rId37"/>
+    <sheet name="Share Repurchases - Additional " sheetId="38" r:id="rId38"/>
+    <sheet name="Accumulated Other Comprehensi39" sheetId="39" r:id="rId39"/>
+    <sheet name="Share-Based Compensation Expens" sheetId="40" r:id="rId40"/>
+    <sheet name="Income Taxes - Additional Infor" sheetId="41" r:id="rId41"/>
+    <sheet name="Earnings Per Share - Weighted A" sheetId="42" r:id="rId42"/>
+    <sheet name="Earnings Per Share - Additional" sheetId="43" r:id="rId43"/>
+    <sheet name="Commitments and Contingencies -" sheetId="44" r:id="rId44"/>
+    <sheet name="Segment Information - Net Sales" sheetId="45" r:id="rId45"/>
+    <sheet name="Segment Information - Additiona" sheetId="46" r:id="rId46"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="388">
   <si>
     <t>Document and Entity Information - shares</t>
   </si>
@@ -1232,30 +1247,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt formatCode="_(&quot;$ &quot;#,##0_);_(&quot;$ &quot;(#,##0)" numFmtId="164"/>
-    <numFmt formatCode="_(&quot;$ &quot;#,##0.00_);_(&quot;$ &quot;(#,##0.00)" numFmtId="165"/>
-    <numFmt formatCode="_(&quot;¥ &quot;#,##0_);_(&quot;¥ &quot;(#,##0)" numFmtId="166"/>
-    <numFmt formatCode="_(&quot;¥ &quot;#,##0.0_);_(&quot;¥ &quot;(#,##0.0)" numFmtId="167"/>
-    <numFmt formatCode="#,##0.0_);(#,##0.0)" numFmtId="168"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$ &quot;#,##0_);_(&quot;$ &quot;\(#,##0\)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$ &quot;#,##0.00_);_(&quot;$ &quot;\(#,##0.00\)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;¥ &quot;#,##0_);_(&quot;¥ &quot;\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;¥ &quot;#,##0.0_);_(&quot;¥ &quot;\(#,##0.0\)"/>
+    <numFmt numFmtId="168" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1271,51 +1293,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="39" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="39" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="166" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="168" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1603,33 +1644,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="41"/>
-    <col customWidth="1" max="2" min="2" width="24"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
+    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1637,12 +1675,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1658,7 +1696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1666,15 +1704,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1682,7 +1720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -1690,7 +1728,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
@@ -1698,15 +1736,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>39911</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1752,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>21</v>
       </c>
@@ -1722,11 +1760,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>388857073</v>
       </c>
     </row>
@@ -1734,47 +1772,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="27"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>127</v>
       </c>
@@ -1786,47 +1819,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="34"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>130</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
@@ -1838,47 +1866,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="68"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>133</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>133</v>
       </c>
@@ -1890,47 +1913,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="48"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>136</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>136</v>
       </c>
@@ -1942,47 +1960,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="69"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>139</v>
       </c>
@@ -1994,47 +2007,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="74"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>142</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>142</v>
       </c>
@@ -2046,47 +2054,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="33"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>145</v>
       </c>
@@ -2098,47 +2101,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>148</v>
       </c>
@@ -2150,47 +2148,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="52"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="52" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>151</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>151</v>
       </c>
@@ -2202,47 +2195,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="29"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>154</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="395" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>154</v>
       </c>
@@ -2254,31 +2242,23 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2292,232 +2272,232 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>1353</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>1783</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1522</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>2476</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>1830</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>2398</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>654</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>702</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>751</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>4483</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>4315</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>4671</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>2686</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>2616</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>2662</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>726</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>679</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>674</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>7895</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>7610</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>8007</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="n">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
         <v>65</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>1330</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>1243</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>1413</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>1132</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>1113</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>1059</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>134</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>32</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>2596</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>2453</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>2915</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>1248</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>1248</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>1320</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>1027</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>1005</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>1046</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>2275</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>2253</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>2366</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>45</v>
       </c>
@@ -2531,137 +2511,132 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>19</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>20</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="n">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
         <v>81</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>2965</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>2749</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>2621</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="5">
         <v>40</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>54</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="5">
         <v>3024</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>2904</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="5">
         <v>2726</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="7" t="n">
+      <c r="B27" s="7">
         <v>7895</v>
       </c>
-      <c r="C27" s="7" t="n">
+      <c r="C27" s="7">
         <v>7610</v>
       </c>
-      <c r="D27" s="7" t="n">
+      <c r="D27" s="7">
         <v>8007</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="51"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="51" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>157</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>158</v>
       </c>
@@ -2673,47 +2648,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="75"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="75" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>160</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="240" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>161</v>
       </c>
@@ -2725,47 +2695,41 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>164</v>
       </c>
@@ -2773,7 +2737,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>166</v>
       </c>
@@ -2781,7 +2745,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="128" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>168</v>
       </c>
@@ -2789,7 +2753,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>170</v>
       </c>
@@ -2801,47 +2765,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="48"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>173</v>
       </c>
@@ -2853,47 +2812,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="69"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="69" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="350" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>176</v>
       </c>
@@ -2905,47 +2859,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="74"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="74" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>179</v>
       </c>
@@ -2957,47 +2906,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="34"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>182</v>
       </c>
@@ -3009,47 +2953,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="272" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>185</v>
       </c>
@@ -3061,29 +3000,23 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="21"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>187</v>
       </c>
@@ -3091,45 +3024,37 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="76"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="76" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>191</v>
       </c>
@@ -3143,107 +3068,99 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>1248</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>1248</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1248</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="n">
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>65</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>1248</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1313</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>1344</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="n">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>-65</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>-24</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>1248</v>
       </c>
-      <c r="C7" s="7" t="n">
+      <c r="C7" s="7">
         <v>1248</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1320</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3257,104 +3174,95 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="7">
         <v>6041</v>
       </c>
-      <c r="C2" s="7" t="n">
+      <c r="C2" s="7">
         <v>5813</v>
       </c>
-      <c r="D2" s="7" t="n">
+      <c r="D2" s="7">
         <v>5900</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="8" t="n">
+      <c r="B3" s="8">
         <v>0.05</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>0.05</v>
       </c>
-      <c r="D3" s="8" t="n">
+      <c r="D3" s="8">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>2300</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>2300</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>2300</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>389</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>399</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>389</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>399</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>399</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="21"/>
-    <col customWidth="1" max="3" min="3" width="21"/>
-    <col customWidth="1" max="4" min="4" width="21"/>
-    <col customWidth="1" max="5" min="5" width="21"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>197</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -3364,7 +3272,8 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>199</v>
       </c>
@@ -3378,25 +3287,25 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>1250</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>205</v>
       </c>
@@ -3404,21 +3313,21 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="7" t="n">
+      <c r="B7" s="7">
         <v>1350</v>
       </c>
-      <c r="D7" s="7" t="n">
+      <c r="D7" s="7">
         <v>1320</v>
       </c>
-      <c r="E7" s="7" t="n">
+      <c r="E7" s="7">
         <v>1340</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>208</v>
       </c>
@@ -3426,39 +3335,39 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C11" s="10" t="n">
+      <c r="C11" s="10">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B12" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="7" t="n">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
         <v>65</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>212</v>
       </c>
@@ -3466,23 +3375,23 @@
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="11">
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="11">
         <v>2.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>208</v>
       </c>
@@ -3490,87 +3399,87 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B20" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E27" s="7" t="n">
+      <c r="E27" s="7">
         <v>400</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>212</v>
       </c>
@@ -3578,31 +3487,31 @@
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="B31" s="7" t="n">
+      <c r="B31" s="7">
         <v>500</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B32" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B33" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>227</v>
       </c>
@@ -3614,31 +3523,23 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>229</v>
       </c>
@@ -3652,379 +3553,376 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>389</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>697</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>31</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>58</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>46</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>40</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>466</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>795</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>28</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>256</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>46</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>74</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>296</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>147</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>361</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>441</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>58</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B22" s="5" t="n">
+      <c r="B22" s="5">
         <v>392</v>
       </c>
-      <c r="C22" s="5" t="n">
+      <c r="C22" s="5">
         <v>499</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>552</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>21</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="5">
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="5">
+        <v>0</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="5">
+        <v>0</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="n">
+      <c r="B32" s="7">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4038,277 +3936,277 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>4000000</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>17000000</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>89000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>2000000</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>54000000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>5000000</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>5000000</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>1000000</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>18000000</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>18000000</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="7">
         <v>1000000</v>
       </c>
-      <c r="D20" s="7" t="n">
+      <c r="D20" s="7">
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>31000000</v>
       </c>
-      <c r="E23" s="5" t="n">
+      <c r="E23" s="5">
         <v>35000000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>34000000</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="5">
         <v>34000000</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>1000000</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="5">
         <v>1000000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>102000000</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>102000000</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C31" s="7" t="n">
+      <c r="C31" s="7">
         <v>13000000</v>
       </c>
-      <c r="E31" s="7" t="n">
+      <c r="E31" s="7">
         <v>13000000</v>
       </c>
     </row>
@@ -4318,31 +4216,23 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>254</v>
       </c>
@@ -4356,123 +4246,115 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>1484</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>1750</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>1896</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>873</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>1101</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>1201</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>30</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>31</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>581</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>618</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>664</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
@@ -4486,403 +4368,400 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>31</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>58</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>20</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>21</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>31</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>58</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>20</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>16</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>16</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>2</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="5" t="n">
+      <c r="B23" s="5">
+        <v>0</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0</v>
+      </c>
+      <c r="D23" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="5">
         <v>2</v>
       </c>
-      <c r="C29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="C29" s="5">
+        <v>0</v>
+      </c>
+      <c r="D29" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="5">
         <v>11</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>13</v>
       </c>
-      <c r="D35" s="5" t="n">
+      <c r="D35" s="5">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" s="5" t="n">
+      <c r="B38" s="5">
+        <v>0</v>
+      </c>
+      <c r="C38" s="5">
         <v>1</v>
       </c>
-      <c r="D38" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="5">
         <v>5</v>
       </c>
-      <c r="C41" s="5" t="n">
+      <c r="C41" s="5">
         <v>10</v>
       </c>
-      <c r="D41" s="5" t="n">
+      <c r="D41" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" s="7" t="n">
+      <c r="B44" s="7">
+        <v>0</v>
+      </c>
+      <c r="C44" s="7">
+        <v>0</v>
+      </c>
+      <c r="D44" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -4896,165 +4775,165 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="7">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>43</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>-26</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>-62</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>-1</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>-5</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>2</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>2</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>12</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>-13</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>-5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="7" t="n">
+      <c r="B20" s="7">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>-2</v>
       </c>
-      <c r="D20" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7" t="n">
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7">
         <v>-10</v>
       </c>
     </row>
@@ -5064,31 +4943,23 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>287</v>
       </c>
@@ -5102,92 +4973,90 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>40</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>12</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="n">
+      <c r="D5" s="7">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
-    <col customWidth="1" max="5" min="5" width="15"/>
-    <col customWidth="1" max="6" min="6" width="14"/>
+    <col min="1" max="2" width="80" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5201,73 +5070,82 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>292</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="12" t="n">
+      <c r="C4" s="12">
         <v>3.8</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="12" t="n">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
         <v>12.5</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="7">
         <v>100</v>
       </c>
-      <c r="D5" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>300</v>
       </c>
-      <c r="F5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>26.64</v>
       </c>
-      <c r="D6" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="8" t="n">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
         <v>24.21</v>
       </c>
-      <c r="F6" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6"/>
-    <row r="8" spans="1:6">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="16" t="s">
         <v>296</v>
       </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5277,30 +5155,23 @@
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="B8:E8"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="77"/>
-    <col customWidth="1" max="2" min="2" width="14"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
+    <col min="1" max="1" width="77" customWidth="1"/>
+    <col min="2" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>297</v>
       </c>
@@ -5311,79 +5182,74 @@
         <v>298</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>700</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2600-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="73"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="14"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
-    <col customWidth="1" max="6" min="6" width="14"/>
-    <col customWidth="1" max="7" min="7" width="14"/>
-    <col customWidth="1" max="8" min="8" width="15"/>
-    <col customWidth="1" max="9" min="9" width="14"/>
-    <col customWidth="1" max="10" min="10" width="14"/>
-    <col customWidth="1" max="11" min="11" width="14"/>
+    <col min="1" max="1" width="73" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5415,418 +5281,418 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>-5</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>-4</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>-10</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F3" s="7">
         <v>-22</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G3" s="7">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H3" s="7">
         <v>12</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I3" s="7">
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>-43</v>
       </c>
-      <c r="D4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5" t="n">
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
         <v>39</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="5">
         <v>-7</v>
       </c>
-      <c r="G4" s="5" t="n">
+      <c r="G4" s="5">
         <v>-89</v>
       </c>
-      <c r="H4" s="5" t="n">
+      <c r="H4" s="5">
         <v>-20</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="5">
         <v>-57</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>-1</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>-1</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>-4</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5" t="n">
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
         <v>8</v>
       </c>
-      <c r="G5" s="5" t="n">
+      <c r="G5" s="5">
         <v>-7</v>
       </c>
-      <c r="H5" s="5" t="n">
+      <c r="H5" s="5">
         <v>-6</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>-23</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>-8</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>29</v>
       </c>
-      <c r="F6" s="5" t="n">
+      <c r="F6" s="5">
         <v>-21</v>
       </c>
-      <c r="G6" s="5" t="n">
+      <c r="G6" s="5">
         <v>-65</v>
       </c>
-      <c r="H6" s="5" t="n">
+      <c r="H6" s="5">
         <v>-14</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="5">
         <v>-57</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>40</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>23</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>46</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="n">
+      <c r="F7" s="5">
         <v>-1</v>
       </c>
-      <c r="G7" s="5" t="n">
+      <c r="G7" s="5">
         <v>20</v>
       </c>
-      <c r="H7" s="5" t="n">
+      <c r="H7" s="5">
         <v>40</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="5">
         <v>28</v>
       </c>
-      <c r="J7" s="7" t="n">
+      <c r="J7" s="7">
         <v>54</v>
       </c>
-      <c r="K7" s="7" t="n">
+      <c r="K7" s="7">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>-5</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>-4</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>-10</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>-22</v>
       </c>
-      <c r="G9" s="5" t="n">
+      <c r="G9" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>-5</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>21</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>-4</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>-10</v>
       </c>
-      <c r="F12" s="5" t="n">
+      <c r="F12" s="5">
         <v>-22</v>
       </c>
-      <c r="G12" s="5" t="n">
+      <c r="G12" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>46</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>25</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="5">
         <v>21</v>
       </c>
-      <c r="F13" s="5" t="n">
+      <c r="F13" s="5">
         <v>31</v>
       </c>
-      <c r="G13" s="5" t="n">
+      <c r="G13" s="5">
         <v>53</v>
       </c>
-      <c r="H13" s="5" t="n">
+      <c r="H13" s="5">
         <v>41</v>
       </c>
-      <c r="I13" s="5" t="n">
+      <c r="I13" s="5">
         <v>21</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="5">
         <v>29</v>
       </c>
-      <c r="K13" s="5" t="n">
+      <c r="K13" s="5">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>-43</v>
       </c>
-      <c r="D16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="n">
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
         <v>39</v>
       </c>
-      <c r="F16" s="5" t="n">
+      <c r="F16" s="5">
         <v>-7</v>
       </c>
-      <c r="G16" s="5" t="n">
+      <c r="G16" s="5">
         <v>-89</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>-1</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>-1</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>-4</v>
       </c>
-      <c r="E17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="n">
+      <c r="E17" s="5">
+        <v>0</v>
+      </c>
+      <c r="F17" s="5">
         <v>8</v>
       </c>
-      <c r="G17" s="5" t="n">
+      <c r="G17" s="5">
         <v>-7</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>22</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>-44</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>-4</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="5">
         <v>39</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="5">
         <v>-96</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="7" t="n">
+      <c r="B19" s="7">
         <v>-1</v>
       </c>
-      <c r="C19" s="7" t="n">
+      <c r="C19" s="7">
         <v>-23</v>
       </c>
-      <c r="D19" s="7" t="n">
+      <c r="D19" s="7">
         <v>21</v>
       </c>
-      <c r="E19" s="7" t="n">
+      <c r="E19" s="7">
         <v>7</v>
       </c>
-      <c r="F19" s="7" t="n">
+      <c r="F19" s="7">
         <v>-32</v>
       </c>
-      <c r="G19" s="7" t="n">
+      <c r="G19" s="7">
         <v>-33</v>
       </c>
-      <c r="H19" s="7" t="n">
+      <c r="H19" s="7">
         <v>-1</v>
       </c>
-      <c r="I19" s="7" t="n">
+      <c r="I19" s="7">
         <v>7</v>
       </c>
-      <c r="J19" s="7" t="n">
+      <c r="J19" s="7">
         <v>25</v>
       </c>
-      <c r="K19" s="7" t="n">
+      <c r="K19" s="7">
         <v>63</v>
       </c>
     </row>
@@ -5836,43 +5702,42 @@
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -5886,259 +5751,259 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>3838</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>3798</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>11077</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>11087</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>2313</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>2305</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>6770</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>6948</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>1525</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1493</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>4307</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>4139</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>1147</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>1104</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>3224</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>3249</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>378</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>389</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>1083</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>53</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>-4</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>-3</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>-11</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>-6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="5">
         <v>364</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>372</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>1041</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>839</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>135</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>168</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>398</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="7">
         <v>229</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>204</v>
       </c>
-      <c r="D12" s="7" t="n">
+      <c r="D12" s="7">
         <v>643</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>456</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>391</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>399</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>395</v>
       </c>
-      <c r="E13" s="5" t="n">
+      <c r="E13" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>393</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>400</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>397</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>400</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="8" t="n">
+      <c r="B15" s="8">
         <v>0.59</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="8">
         <v>0.51</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="8">
         <v>1.63</v>
       </c>
-      <c r="E15" s="8" t="n">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="E15" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="9" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="C16" s="9" t="n">
+      <c r="B16" s="9">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C16" s="9">
         <v>0.51</v>
       </c>
-      <c r="D16" s="9" t="n">
+      <c r="D16" s="9">
         <v>1.62</v>
       </c>
-      <c r="E16" s="9" t="n">
-        <v>1.14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="9">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="8" t="n">
+      <c r="B17" s="8">
         <v>0.23</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>0.23</v>
       </c>
-      <c r="D17" s="8" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="E17" s="8" t="n">
-        <v>0.6899999999999999</v>
+      <c r="D17" s="8">
+        <v>0.69</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -6147,43 +6012,40 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2700-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="79"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="79" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6197,140 +6059,140 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="n">
+      <c r="D4" s="7">
         <v>60</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="7">
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>-7</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>-8</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>-23</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>-25</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>11</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>37</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="5">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>14</v>
       </c>
-      <c r="D9" s="5" t="n">
+      <c r="D9" s="5">
         <v>47</v>
       </c>
-      <c r="E9" s="5" t="n">
+      <c r="E9" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>4</v>
       </c>
-      <c r="D12" s="5" t="n">
+      <c r="D12" s="5">
         <v>10</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="7" t="n">
+      <c r="C15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="7" t="n">
+      <c r="D15" s="7">
         <v>3</v>
       </c>
-      <c r="E15" s="7" t="n">
+      <c r="E15" s="7">
         <v>3</v>
       </c>
     </row>
@@ -6340,59 +6202,54 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2800-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="21"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>321</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="7">
         <v>0</v>
       </c>
     </row>
@@ -6400,43 +6257,40 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2900-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6450,59 +6304,59 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>391</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>399</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>395</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>398</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>1</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>2</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>393</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>400</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>397</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>400</v>
       </c>
     </row>
@@ -6512,43 +6366,40 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2A00-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6562,25 +6413,25 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="5">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="5">
         <v>9</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="5">
         <v>7</v>
       </c>
     </row>
@@ -6590,47 +6441,44 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
-    <col customWidth="1" max="6" min="6" width="16"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="14"/>
       <c r="F1" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -6647,139 +6495,139 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="B4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>60</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="n">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
         <v>15</v>
       </c>
-      <c r="F8" s="5" t="n">
+      <c r="F8" s="5">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="F9" s="5" t="n">
+      <c r="F9" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="7">
         <v>64</v>
       </c>
-      <c r="F10" s="5" t="n">
+      <c r="F10" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>29</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>131</v>
       </c>
-      <c r="F11" s="5" t="n">
+      <c r="F11" s="5">
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="7" t="n">
+      <c r="F12" s="7">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="B14" s="5" t="n">
+      <c r="B14" s="5">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B15" s="7" t="n">
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="7" t="n">
+      <c r="D16" s="7">
         <v>60</v>
       </c>
     </row>
@@ -6789,84 +6637,91 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2C00-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="56"/>
-    <col customWidth="1" max="3" min="3" width="15"/>
-    <col customWidth="1" max="4" min="4" width="4"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
-    <col customWidth="1" max="6" min="6" width="4"/>
-    <col customWidth="1" max="7" min="7" width="15"/>
-    <col customWidth="1" max="8" min="8" width="4"/>
-    <col customWidth="1" max="9" min="9" width="14"/>
-    <col customWidth="1" max="10" min="10" width="4"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="4" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="4" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="C2" s="2" t="s">
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>3838</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="7">
         <v>3798</v>
       </c>
-      <c r="G4" s="7" t="n">
+      <c r="G4" s="7">
         <v>11077</v>
       </c>
-      <c r="I4" s="7" t="n">
+      <c r="I4" s="7">
         <v>11087</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>342</v>
       </c>
@@ -6883,37 +6738,37 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="7" t="n">
+      <c r="C8" s="7">
         <v>3004</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="7">
         <v>2914</v>
       </c>
-      <c r="G8" s="7" t="n">
+      <c r="G8" s="7">
         <v>8775</v>
       </c>
-      <c r="I8" s="7" t="n">
+      <c r="I8" s="7">
         <v>8544</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>342</v>
       </c>
@@ -6933,34 +6788,34 @@
         <v>346</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="7">
         <v>310</v>
       </c>
-      <c r="E12" s="7" t="n">
+      <c r="E12" s="7">
         <v>289</v>
       </c>
-      <c r="G12" s="7" t="n">
+      <c r="G12" s="7">
         <v>822</v>
       </c>
-      <c r="I12" s="7" t="n">
+      <c r="I12" s="7">
         <v>783</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>342</v>
       </c>
@@ -6977,34 +6832,34 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="7">
         <v>158</v>
       </c>
-      <c r="E16" s="7" t="n">
+      <c r="E16" s="7">
         <v>164</v>
       </c>
-      <c r="G16" s="7" t="n">
+      <c r="G16" s="7">
         <v>446</v>
       </c>
-      <c r="I16" s="7" t="n">
+      <c r="I16" s="7">
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>342</v>
       </c>
@@ -7021,34 +6876,34 @@
         <v>352</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="7">
         <v>312</v>
       </c>
-      <c r="E20" s="7" t="n">
+      <c r="E20" s="7">
         <v>376</v>
       </c>
-      <c r="G20" s="7" t="n">
+      <c r="G20" s="7">
         <v>883</v>
       </c>
-      <c r="I20" s="7" t="n">
+      <c r="I20" s="7">
         <v>1107</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>342</v>
       </c>
@@ -7065,34 +6920,34 @@
         <v>354</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="7">
         <v>54</v>
       </c>
-      <c r="E24" s="7" t="n">
+      <c r="E24" s="7">
         <v>55</v>
       </c>
-      <c r="G24" s="7" t="n">
+      <c r="G24" s="7">
         <v>151</v>
       </c>
-      <c r="I24" s="7" t="n">
+      <c r="I24" s="7">
         <v>155</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>342</v>
       </c>
@@ -7109,765 +6964,800 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="7" t="n">
+      <c r="C28" s="7">
         <v>1322</v>
       </c>
-      <c r="E28" s="7" t="n">
+      <c r="E28" s="7">
         <v>1340</v>
       </c>
-      <c r="G28" s="7" t="n">
+      <c r="G28" s="7">
         <v>3712</v>
       </c>
-      <c r="I28" s="7" t="n">
+      <c r="I28" s="7">
         <v>3876</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>750</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="5">
         <v>756</v>
       </c>
-      <c r="G31" s="5" t="n">
+      <c r="G31" s="5">
         <v>2137</v>
       </c>
-      <c r="I31" s="5" t="n">
+      <c r="I31" s="5">
         <v>2203</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>109</v>
       </c>
-      <c r="E34" s="5" t="n">
+      <c r="E34" s="5">
         <v>102</v>
       </c>
-      <c r="G34" s="5" t="n">
+      <c r="G34" s="5">
         <v>277</v>
       </c>
-      <c r="I34" s="5" t="n">
+      <c r="I34" s="5">
         <v>264</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="5">
         <v>154</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="5">
         <v>150</v>
       </c>
-      <c r="G37" s="5" t="n">
+      <c r="G37" s="5">
         <v>435</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="5">
         <v>453</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>278</v>
       </c>
-      <c r="E40" s="5" t="n">
+      <c r="E40" s="5">
         <v>296</v>
       </c>
-      <c r="G40" s="5" t="n">
+      <c r="G40" s="5">
         <v>780</v>
       </c>
-      <c r="I40" s="5" t="n">
+      <c r="I40" s="5">
         <v>856</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="5" t="n">
+      <c r="C43" s="5">
         <v>31</v>
       </c>
-      <c r="E43" s="5" t="n">
+      <c r="E43" s="5">
         <v>36</v>
       </c>
-      <c r="G43" s="5" t="n">
+      <c r="G43" s="5">
         <v>83</v>
       </c>
-      <c r="I43" s="5" t="n">
+      <c r="I43" s="5">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="5" t="n">
+      <c r="C46" s="5">
         <v>1758</v>
       </c>
-      <c r="E46" s="5" t="n">
+      <c r="E46" s="5">
         <v>1705</v>
       </c>
-      <c r="G46" s="5" t="n">
+      <c r="G46" s="5">
         <v>5077</v>
       </c>
-      <c r="I46" s="5" t="n">
+      <c r="I46" s="5">
         <v>4896</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C49" s="5" t="n">
+      <c r="C49" s="5">
         <v>1587</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="5">
         <v>1507</v>
       </c>
-      <c r="G49" s="5" t="n">
+      <c r="G49" s="5">
         <v>4609</v>
       </c>
-      <c r="I49" s="5" t="n">
+      <c r="I49" s="5">
         <v>4335</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C52" s="5" t="n">
+      <c r="C52" s="5">
         <v>143</v>
       </c>
-      <c r="E52" s="5" t="n">
+      <c r="E52" s="5">
         <v>131</v>
       </c>
-      <c r="G52" s="5" t="n">
+      <c r="G52" s="5">
         <v>387</v>
       </c>
-      <c r="I52" s="5" t="n">
+      <c r="I52" s="5">
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="C55" s="5">
+        <v>0</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0</v>
+      </c>
+      <c r="G55" s="5">
+        <v>0</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="5" t="n">
+      <c r="C58" s="5">
         <v>13</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="5">
         <v>55</v>
       </c>
-      <c r="G58" s="5" t="n">
+      <c r="G58" s="5">
         <v>34</v>
       </c>
-      <c r="I58" s="5" t="n">
+      <c r="I58" s="5">
         <v>171</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="5" t="n">
+      <c r="C61" s="5">
         <v>15</v>
       </c>
-      <c r="E61" s="5" t="n">
+      <c r="E61" s="5">
         <v>12</v>
       </c>
-      <c r="G61" s="5" t="n">
+      <c r="G61" s="5">
         <v>47</v>
       </c>
-      <c r="I61" s="5" t="n">
+      <c r="I61" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C64" s="5" t="n">
+      <c r="C64" s="5">
         <v>557</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="5">
         <v>580</v>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="G64" s="5">
         <v>1653</v>
       </c>
-      <c r="I64" s="5" t="n">
+      <c r="I64" s="5">
         <v>1763</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="5" t="n">
+      <c r="C67" s="5">
         <v>467</v>
       </c>
-      <c r="E67" s="5" t="n">
+      <c r="E67" s="5">
         <v>479</v>
       </c>
-      <c r="G67" s="5" t="n">
+      <c r="G67" s="5">
         <v>1396</v>
       </c>
-      <c r="I67" s="5" t="n">
+      <c r="I67" s="5">
         <v>1456</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C70" s="5" t="n">
+      <c r="C70" s="5">
         <v>57</v>
       </c>
-      <c r="E70" s="5" t="n">
+      <c r="E70" s="5">
         <v>55</v>
       </c>
-      <c r="G70" s="5" t="n">
+      <c r="G70" s="5">
         <v>156</v>
       </c>
-      <c r="I70" s="5" t="n">
+      <c r="I70" s="5">
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="5" t="n">
+      <c r="C73" s="5">
         <v>4</v>
       </c>
-      <c r="E73" s="5" t="n">
+      <c r="E73" s="5">
         <v>14</v>
       </c>
-      <c r="G73" s="5" t="n">
+      <c r="G73" s="5">
         <v>11</v>
       </c>
-      <c r="I73" s="5" t="n">
+      <c r="I73" s="5">
         <v>45</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="5" t="n">
+      <c r="C76" s="5">
         <v>21</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="5">
         <v>25</v>
       </c>
-      <c r="G76" s="5" t="n">
+      <c r="G76" s="5">
         <v>69</v>
       </c>
-      <c r="I76" s="5" t="n">
+      <c r="I76" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C79" s="5" t="n">
+      <c r="C79" s="5">
         <v>8</v>
       </c>
-      <c r="E79" s="5" t="n">
+      <c r="E79" s="5">
         <v>7</v>
       </c>
-      <c r="G79" s="5" t="n">
+      <c r="G79" s="5">
         <v>21</v>
       </c>
-      <c r="I79" s="5" t="n">
+      <c r="I79" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C82" s="5" t="n">
+      <c r="C82" s="5">
         <v>201</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E82" s="5" t="n">
+      <c r="E82" s="5">
         <v>173</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G82" s="5" t="n">
+      <c r="G82" s="5">
         <v>635</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I82" s="5" t="n">
+      <c r="I82" s="5">
         <v>552</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C85" s="5" t="n">
+      <c r="C85" s="5">
         <v>200</v>
       </c>
       <c r="D85" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E85" s="5" t="n">
+      <c r="E85" s="5">
         <v>172</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G85" s="5" t="n">
+      <c r="G85" s="5">
         <v>633</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I85" s="5" t="n">
+      <c r="I85" s="5">
         <v>550</v>
       </c>
       <c r="J85" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="5" t="n">
+      <c r="C88" s="5">
         <v>1</v>
       </c>
       <c r="D88" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E88" s="5" t="n">
+      <c r="E88" s="5">
         <v>1</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G88" s="5" t="n">
+      <c r="G88" s="5">
         <v>2</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I88" s="5" t="n">
+      <c r="I88" s="5">
         <v>2</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C91" s="5" t="n">
+      <c r="C91" s="5">
         <v>0</v>
       </c>
       <c r="D91" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E91" s="5" t="n">
+      <c r="E91" s="5">
         <v>0</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G91" s="5" t="n">
+      <c r="G91" s="5">
         <v>0</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I91" s="5" t="n">
+      <c r="I91" s="5">
         <v>0</v>
       </c>
       <c r="J91" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C94" s="5" t="n">
+      <c r="C94" s="5">
         <v>0</v>
       </c>
       <c r="D94" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E94" s="5" t="n">
+      <c r="E94" s="5">
         <v>0</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G94" s="5" t="n">
+      <c r="G94" s="5">
         <v>0</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I94" s="5" t="n">
+      <c r="I94" s="5">
         <v>0</v>
       </c>
       <c r="J94" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C97" s="7" t="n">
+      <c r="C97" s="7">
         <v>0</v>
       </c>
       <c r="D97" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="E97" s="7" t="n">
+      <c r="E97" s="7">
         <v>0</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="G97" s="7" t="n">
+      <c r="G97" s="7">
         <v>0</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="I97" s="7" t="n">
+      <c r="I97" s="7">
         <v>0</v>
       </c>
       <c r="J97" s="4" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="98" spans="1:10"/>
-    <row r="99" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+    </row>
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="16" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="14"/>
+    </row>
+    <row r="100" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="16" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+    </row>
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="16" t="s">
         <v>384</v>
       </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A98:I98"/>
+    <mergeCell ref="B99:I99"/>
+    <mergeCell ref="B100:I100"/>
+    <mergeCell ref="B101:I101"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -7875,56 +7765,47 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="B99:I99"/>
-    <mergeCell ref="B100:I100"/>
-    <mergeCell ref="B101:I101"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2D00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="55"/>
-    <col customWidth="1" max="2" min="2" width="21"/>
+    <col min="1" max="1" width="55" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>385</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
     </row>
@@ -7932,43 +7813,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -7982,110 +7862,110 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>229</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>204</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>643</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="5">
         <v>-5</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>-10</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="5">
         <v>12</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>23</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>39</v>
       </c>
-      <c r="D6" s="5" t="n">
+      <c r="D6" s="5">
         <v>-20</v>
       </c>
-      <c r="E6" s="5" t="n">
+      <c r="E6" s="5">
         <v>-57</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>-1</v>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5" t="n">
+      <c r="C7" s="5">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
         <v>-6</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>17</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>29</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>-14</v>
       </c>
-      <c r="E8" s="5" t="n">
+      <c r="E8" s="5">
         <v>-57</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="7" t="n">
+      <c r="B9" s="7">
         <v>246</v>
       </c>
-      <c r="C9" s="7" t="n">
+      <c r="C9" s="7">
         <v>233</v>
       </c>
-      <c r="D9" s="7" t="n">
+      <c r="D9" s="7">
         <v>629</v>
       </c>
-      <c r="E9" s="7" t="n">
+      <c r="E9" s="7">
         <v>399</v>
       </c>
     </row>
@@ -8095,43 +7975,42 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
-    <col customWidth="1" max="4" min="4" width="15"/>
-    <col customWidth="1" max="5" min="5" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8145,37 +8024,37 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="7" t="n">
+      <c r="B3" s="7">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="n">
+      <c r="C3" s="7">
         <v>4</v>
       </c>
-      <c r="D3" s="7" t="n">
+      <c r="D3" s="7">
         <v>-6</v>
       </c>
-      <c r="E3" s="7" t="n">
+      <c r="E3" s="7">
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>6</v>
       </c>
-      <c r="C4" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7" t="n">
+      <c r="C4" s="7">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7">
         <v>4</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="7">
         <v>-6</v>
       </c>
     </row>
@@ -8185,38 +8064,36 @@
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="15"/>
-    <col customWidth="1" max="3" min="3" width="14"/>
+    <col min="1" max="1" width="80" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -8224,396 +8101,396 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="7" t="n">
+      <c r="B4" s="7">
         <v>643</v>
       </c>
-      <c r="C4" s="7" t="n">
+      <c r="C4" s="7">
         <v>456</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="5">
         <v>418</v>
       </c>
-      <c r="C6" s="5" t="n">
+      <c r="C6" s="5">
         <v>449</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="5">
         <v>-46</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>-47</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="5">
         <v>60</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="5" t="n">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="C9" s="5">
         <v>-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="n">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="5" t="n">
+      <c r="B11" s="5">
         <v>17</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="5" t="n">
+      <c r="B12" s="5">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="n">
+      <c r="C12" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="5" t="n">
+      <c r="B13" s="5">
         <v>-50</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>-10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="5">
         <v>-636</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>-513</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="5">
         <v>-60</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>-52</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="5">
         <v>55</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>294</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="5">
         <v>-46</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="5">
         <v>188</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="5">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="n">
+      <c r="C20" s="5">
         <v>-18</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="5">
         <v>600</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B23" s="5" t="n">
+      <c r="B23" s="5">
         <v>-463</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>-383</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="5" t="n">
+      <c r="B24" s="5">
         <v>60</v>
       </c>
-      <c r="C24" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="C24" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="5" t="n">
+      <c r="B25" s="5">
         <v>-3</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="5">
         <v>-406</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>-384</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="5">
         <v>-67</v>
       </c>
-      <c r="C28" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="5">
         <v>23</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="5">
         <v>-15</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>-18</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="5">
         <v>-300</v>
       </c>
-      <c r="C31" s="5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="C31" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" s="5" t="n">
+      <c r="B32" s="5">
+        <v>0</v>
+      </c>
+      <c r="C32" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="5" t="n">
+      <c r="B33" s="5">
         <v>-272</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>-275</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="5" t="n">
+      <c r="B34" s="5">
         <v>-631</v>
       </c>
-      <c r="C34" s="5" t="n">
+      <c r="C34" s="5">
         <v>-267</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B35" s="5" t="n">
+      <c r="B35" s="5">
         <v>7</v>
       </c>
-      <c r="C35" s="5" t="n">
+      <c r="C35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B36" s="5" t="n">
+      <c r="B36" s="5">
         <v>-430</v>
       </c>
-      <c r="C36" s="5" t="n">
+      <c r="C36" s="5">
         <v>152</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="5">
         <v>1783</v>
       </c>
-      <c r="C37" s="5" t="n">
+      <c r="C37" s="5">
         <v>1370</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="5">
         <v>1353</v>
       </c>
-      <c r="C38" s="5" t="n">
+      <c r="C38" s="5">
         <v>1522</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="5">
         <v>76</v>
       </c>
-      <c r="C40" s="5" t="n">
+      <c r="C40" s="5">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B41" s="7" t="n">
+      <c r="B41" s="7">
         <v>260</v>
       </c>
-      <c r="C41" s="7" t="n">
+      <c r="C41" s="7">
         <v>318</v>
       </c>
     </row>
@@ -8622,47 +8499,41 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:C1"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="80"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>121</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="320" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>121</v>
       </c>
@@ -8674,47 +8545,42 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="44"/>
-    <col customWidth="1" max="2" min="2" width="80"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>124</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>124</v>
       </c>
@@ -8726,6 +8592,6 @@
   <mergeCells count="1">
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>